--- a/Data/EC/NIT-9007247482.xlsx
+++ b/Data/EC/NIT-9007247482.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1098D7C0-A0C0-43B9-B1C0-4715C454B033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5005736C-BB24-49C5-94DF-77DAA7C98711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7D40634-9464-4DF1-A0C2-4F3031816FD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DEBE873-0BB2-4652-AA56-E24336F7D0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,73 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047444936</t>
+  </si>
+  <si>
+    <t>GREISTON PIMENTEL URRUTIA</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>19335385</t>
   </si>
   <si>
     <t>EDUARDO MEDINA ROMERO</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
     <t>2311</t>
   </si>
   <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
     <t>15324579</t>
   </si>
   <si>
     <t>HECTOR NICILAS FERNANDEZ MUNERA</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1047444936</t>
-  </si>
-  <si>
-    <t>GREISTON PIMENTEL URRUTIA</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B006C7-C841-D888-CC65-5B446A1017F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCBA2B8-01A9-5BFD-4BD7-D071F1B69BF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19B0D20-E2F5-4249-AE3E-A1F70A0D7CED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F23DBF-DE92-4F44-926C-8B5436F9DCB6}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>31200</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1097,10 +1097,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1120,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1143,10 +1143,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1166,10 +1166,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1189,10 +1189,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1212,10 +1212,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1232,13 +1232,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>27840</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1255,13 +1255,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1272,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
@@ -1301,13 +1301,13 @@
         <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1318,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1347,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1364,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1387,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1439,13 +1439,13 @@
         <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1479,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1508,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1525,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1548,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1577,13 +1577,13 @@
         <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1600,13 +1600,13 @@
         <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1617,16 +1617,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>52000</v>
+        <v>31200</v>
       </c>
       <c r="G40" s="18">
         <v>1300000</v>
@@ -1640,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1663,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1686,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1709,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1732,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1755,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1778,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1801,16 +1801,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F48" s="18">
-        <v>31200</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="18">
         <v>1300000</v>
@@ -1824,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F49" s="18">
-        <v>27840</v>
+        <v>52000</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1847,16 +1847,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F50" s="24">
-        <v>31200</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9007247482.xlsx
+++ b/Data/EC/NIT-9007247482.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5005736C-BB24-49C5-94DF-77DAA7C98711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2DEAD9-8062-4265-8887-D877D4C529FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DEBE873-0BB2-4652-AA56-E24336F7D0BB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E9276E2-F5E6-43C5-B713-20172E468DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,73 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>19335385</t>
+  </si>
+  <si>
+    <t>EDUARDO MEDINA ROMERO</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>15324579</t>
+  </si>
+  <si>
+    <t>HECTOR NICILAS FERNANDEZ MUNERA</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>1047444936</t>
   </si>
   <si>
     <t>GREISTON PIMENTEL URRUTIA</t>
   </si>
   <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>19335385</t>
-  </si>
-  <si>
-    <t>EDUARDO MEDINA ROMERO</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>15324579</t>
-  </si>
-  <si>
-    <t>HECTOR NICILAS FERNANDEZ MUNERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCBA2B8-01A9-5BFD-4BD7-D071F1B69BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD9104E-FC2F-BF9B-6FA7-E2F48BE2F1CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F23DBF-DE92-4F44-926C-8B5436F9DCB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBF2FC3-90E3-47BE-95A2-2DDDC3D9AF59}">
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1074,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31200</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1097,10 +1097,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1120,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1143,10 +1143,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1166,10 +1166,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1189,10 +1189,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1212,10 +1212,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1232,13 +1232,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>27840</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>46400</v>
@@ -1278,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1295,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1324,13 +1324,13 @@
         <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1341,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1370,13 +1370,13 @@
         <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1387,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1439,13 +1439,13 @@
         <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1456,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1479,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1508,13 +1508,13 @@
         <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1525,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1548,10 +1548,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>27</v>
@@ -1577,13 +1577,13 @@
         <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1594,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1617,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
-        <v>31200</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1640,13 +1640,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1663,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1686,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1709,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1732,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1755,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1778,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1801,16 +1801,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F48" s="18">
-        <v>52000</v>
+        <v>31200</v>
       </c>
       <c r="G48" s="18">
         <v>1300000</v>
@@ -1824,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>27840</v>
       </c>
       <c r="G49" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1847,16 +1847,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D50" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>23</v>
-      </c>
       <c r="F50" s="24">
-        <v>52000</v>
+        <v>31200</v>
       </c>
       <c r="G50" s="24">
         <v>1300000</v>
